--- a/SubwayData/Excel/4호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/4호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0627940-A91D-2D4A-B697-2F6F4792393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C0001-F3B0-A246-9181-93F24C72F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{F436B89B-04E6-9D43-BCB6-C585020AD1E3}"/>
   </bookViews>
@@ -129,30 +129,15 @@
     <t>사당</t>
   </si>
   <si>
-    <t>총신대입구(이수)</t>
-  </si>
-  <si>
-    <t>동작(현충원)</t>
-  </si>
-  <si>
-    <t>이촌(국립중앙박물관)</t>
-  </si>
-  <si>
     <t>신용산</t>
   </si>
   <si>
     <t>삼각지</t>
   </si>
   <si>
-    <t>숙대입구(갈월)</t>
-  </si>
-  <si>
     <t>서울역</t>
   </si>
   <si>
-    <t>회현(남대문시장)</t>
-  </si>
-  <si>
     <t>명동</t>
   </si>
   <si>
@@ -168,12 +153,6 @@
     <t>혜화</t>
   </si>
   <si>
-    <t>한성대입구(삼선교)</t>
-  </si>
-  <si>
-    <t>성신여대입구(돈암)</t>
-  </si>
-  <si>
     <t>길음</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
   </si>
   <si>
     <t>미아</t>
-  </si>
-  <si>
-    <t>수유(강북구청)</t>
   </si>
   <si>
     <t>쌍문</t>
@@ -214,6 +190,38 @@
   </si>
   <si>
     <t>진접</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이촌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한성대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성신여대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수유</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56217732-4821-B545-B3DB-5D8F1687A390}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1046,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6">
         <v>1.1000000000000001</v>
@@ -1060,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6">
         <v>1.8</v>
@@ -1074,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6">
         <v>2.7</v>
@@ -1088,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="6">
         <v>1.3</v>
@@ -1106,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D30" s="6">
         <v>0.7</v>
@@ -1124,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D31" s="6">
         <v>1.2</v>
@@ -1142,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -1160,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6">
         <v>0.9</v>
@@ -1178,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D34" s="6">
         <v>0.7</v>
@@ -1196,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="6">
         <v>0.7</v>
@@ -1214,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36" s="6">
         <v>1.3</v>
@@ -1232,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6">
         <v>0.7</v>
@@ -1250,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D38" s="6">
         <v>1.5</v>
@@ -1268,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D39" s="6">
         <v>0.9</v>
@@ -1286,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -1304,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D41" s="6">
         <v>2.4</v>
@@ -1322,7 +1330,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D42" s="6">
         <v>1.3</v>
@@ -1340,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D43" s="6">
         <v>1.5</v>
@@ -1358,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D44" s="6">
         <v>1.4</v>
@@ -1376,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D45" s="6">
         <v>1.5</v>
@@ -1394,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D46" s="6">
         <v>1.3</v>
@@ -1412,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D47" s="6">
         <v>1.4</v>
@@ -1430,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -1448,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D49" s="6">
         <v>1.2</v>
@@ -1463,10 +1471,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>4.5</v>
@@ -1481,10 +1489,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D51" s="8">
         <v>7.8</v>
@@ -1495,10 +1503,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>2.2000000000000002</v>
